--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\01 Example 1 - Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947300E-0DEE-41B8-B252-6E14DCE85FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0171B92A-FB8D-4B9D-A32D-70B9200641A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="8895" windowWidth="27195" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Data" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,8 +433,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,44 +713,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" cm="1">
+        <f t="array" ref="H2">MAX(IF($E$6:$E$50=E6, $G$6:$G$50))</f>
+        <v>750</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <f>ISNUMBER(G2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>TYPE(G2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <f>VALUE(G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="1">
+        <f t="array" ref="H3">MAX(IF($E$2:$E$50=E3, $G$2:$G$50))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L4" si="0">VALUE(G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="array" ref="H4">MAX(IF($E$2:$E$50=E4, $G$2:$G$50))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
@@ -744,10 +802,13 @@
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">MAX(IF($E$2:$E$50=E5, $G$2:$G$50))</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -763,14 +824,34 @@
       <c r="G6" s="8">
         <v>500</v>
       </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">MAX(IF($E$2:$E$50=E6, $G$2:$G$50))</f>
+        <v>750</v>
+      </c>
+      <c r="I6" s="1" cm="1">
+        <f t="array" ref="I6">MAX(IF($E$6:$E$1000=E6, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="1" t="str" cm="1">
+        <f t="array" ref="R6">INDEX($D$6:$D$1000, MATCH(1, ($E$6:$E$1000=E6)*($G$6:$G$1000=I6), 0))</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="array" ref="S6">INDEX($D$6:$D$1000,MATCH(1,($E$6:$E$1000=E6)*($G$6:$G$1000=I6),0))</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="U6" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">SUMA.ILOCZYN(G6:G10)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
         <v>2</v>
       </c>
@@ -786,13 +867,36 @@
       <c r="G7" s="8">
         <v>300</v>
       </c>
+      <c r="H7" s="1">
+        <f t="array" ref="H7">MAX(IF($E$2:$E$50=E7, $G$2:$G$50))</f>
+        <v>850</v>
+      </c>
+      <c r="I7" s="1" cm="1">
+        <f t="array" ref="I7">MAX(IF($E$6:$E$1000=E7, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="16">
+        <f>SUM(G2:G50)</f>
+        <v>15730</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(G:G)</f>
+        <v>15730</v>
+      </c>
+      <c r="R7" s="1" t="str" cm="1">
+        <f t="array" ref="R7">INDEX($D$6:$D$1000, MATCH(1, ($E$6:$E$1000=E7)*($G$6:$G$1000=I7), 0))</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="array" ref="S7">INDEX($D$6:$D$1000,MATCH(1,($E$6:$E$1000=E7)*($G$6:$G$1000=I7),0))</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>3</v>
       </c>
@@ -808,12 +912,35 @@
       <c r="G8" s="8">
         <v>750</v>
       </c>
+      <c r="H8" s="1">
+        <f t="array" ref="H8">MAX(IF($E$2:$E$50=E8, $G$2:$G$50))</f>
+        <v>750</v>
+      </c>
+      <c r="I8" s="1" cm="1">
+        <f t="array" ref="I8">MAX(IF($E$6:$E$1000=E8, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="14" t="str">
+        <f>INDEX(D2:D50, MATCH(MAX(G2:G50), G2:G50, 0))</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f>INDEX(D2:D50, MATCH(MAX(G2:G50), G2:G50, 0))</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="R8" s="1" t="str" cm="1">
+        <f t="array" ref="R8">INDEX($D$6:$D$1000, MATCH(1, ($E$6:$E$1000=E8)*($G$6:$G$1000=I8), 0))</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="array" ref="S8">INDEX($D$6:$D$1000,MATCH(1,($E$6:$E$1000=E8)*($G$6:$G$1000=I8),0))</f>
+        <v>Ada Lovelace</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="6">
         <v>4</v>
       </c>
@@ -829,12 +956,24 @@
       <c r="G9" s="8">
         <v>550</v>
       </c>
+      <c r="H9" s="1">
+        <f t="array" ref="H9">MAX(IF($E$2:$E$50=E9, $G$2:$G$50))</f>
+        <v>600</v>
+      </c>
+      <c r="I9" s="1" cm="1">
+        <f t="array" ref="I9">MAX(IF($E$6:$E$1000=E9, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="1" t="str" cm="1">
+        <f t="array" ref="R9">INDEX($D$6:$D$1000, MATCH(1, ($E$6:$E$1000=E9)*($G$6:$G$1000=I9), 0))</f>
+        <v>Barbara Liskov</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>5</v>
       </c>
@@ -850,8 +989,20 @@
       <c r="G10" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="1">
+        <f t="array" ref="H10">MAX(IF($E$2:$E$50=E10, $G$2:$G$50))</f>
+        <v>850</v>
+      </c>
+      <c r="I10" s="1" cm="1">
+        <f t="array" ref="I10">MAX(IF($E$6:$E$1000=E10, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+      <c r="R10" s="1" t="str" cm="1">
+        <f t="array" ref="R10">INDEX($D$6:$D$1000, MATCH(1, ($E$6:$E$1000=E10)*($G$6:$G$1000=I10), 0))</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>6</v>
       </c>
@@ -867,9 +1018,17 @@
       <c r="G11" s="8">
         <v>400</v>
       </c>
+      <c r="H11" s="1">
+        <f t="array" ref="H11">MAX(IF($E$2:$E$50=E11, $G$2:$G$50))</f>
+        <v>750</v>
+      </c>
+      <c r="I11" s="1" cm="1">
+        <f t="array" ref="I11">MAX(IF($E$6:$E$1000=E11, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>7</v>
       </c>
@@ -885,9 +1044,17 @@
       <c r="G12" s="8">
         <v>600</v>
       </c>
+      <c r="H12" s="1">
+        <f t="array" ref="H12">MAX(IF($E$2:$E$50=E12, $G$2:$G$50))</f>
+        <v>850</v>
+      </c>
+      <c r="I12" s="1" cm="1">
+        <f t="array" ref="I12">MAX(IF($E$6:$E$1000=E12, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6">
         <v>8</v>
       </c>
@@ -903,9 +1070,13 @@
       <c r="G13" s="8">
         <v>650</v>
       </c>
+      <c r="I13" s="1" cm="1">
+        <f t="array" ref="I13">MAX(IF($E$6:$E$1000=E13, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
         <v>9</v>
       </c>
@@ -921,8 +1092,12 @@
       <c r="G14" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" cm="1">
+        <f t="array" ref="I14">MAX(IF($E$6:$E$1000=E14, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -938,8 +1113,12 @@
       <c r="G15" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" cm="1">
+        <f t="array" ref="I15">MAX(IF($E$6:$E$1000=E15, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>11</v>
       </c>
@@ -955,8 +1134,12 @@
       <c r="G16" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" cm="1">
+        <f t="array" ref="I16">MAX(IF($E$6:$E$1000=E16, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>12</v>
       </c>
@@ -972,8 +1155,12 @@
       <c r="G17" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" cm="1">
+        <f t="array" ref="I17">MAX(IF($E$6:$E$1000=E17, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <v>13</v>
       </c>
@@ -989,8 +1176,12 @@
       <c r="G18" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" cm="1">
+        <f t="array" ref="I18">MAX(IF($E$6:$E$1000=E18, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6">
         <v>14</v>
       </c>
@@ -1006,8 +1197,12 @@
       <c r="G19" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" cm="1">
+        <f t="array" ref="I19">MAX(IF($E$6:$E$1000=E19, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>15</v>
       </c>
@@ -1023,8 +1218,12 @@
       <c r="G20" s="8">
         <v>650</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="1" cm="1">
+        <f t="array" ref="I20">MAX(IF($E$6:$E$1000=E20, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>16</v>
       </c>
@@ -1040,8 +1239,12 @@
       <c r="G21" s="8">
         <v>600</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="1" cm="1">
+        <f t="array" ref="I21">MAX(IF($E$6:$E$1000=E21, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6">
         <v>17</v>
       </c>
@@ -1057,8 +1260,12 @@
       <c r="G22" s="8">
         <v>750</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1" cm="1">
+        <f t="array" ref="I22">MAX(IF($E$6:$E$1000=E22, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6">
         <v>18</v>
       </c>
@@ -1074,8 +1281,12 @@
       <c r="G23" s="8">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1" cm="1">
+        <f t="array" ref="I23">MAX(IF($E$6:$E$1000=E23, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>19</v>
       </c>
@@ -1091,8 +1302,12 @@
       <c r="G24" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" cm="1">
+        <f t="array" ref="I24">MAX(IF($E$6:$E$1000=E24, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>20</v>
       </c>
@@ -1108,8 +1323,12 @@
       <c r="G25" s="8">
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="1" cm="1">
+        <f t="array" ref="I25">MAX(IF($E$6:$E$1000=E25, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>21</v>
       </c>
@@ -1125,8 +1344,12 @@
       <c r="G26" s="8">
         <v>470</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="1" cm="1">
+        <f t="array" ref="I26">MAX(IF($E$6:$E$1000=E26, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>22</v>
       </c>
@@ -1142,8 +1365,12 @@
       <c r="G27" s="8">
         <v>310</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="1" cm="1">
+        <f t="array" ref="I27">MAX(IF($E$6:$E$1000=E27, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6">
         <v>23</v>
       </c>
@@ -1159,8 +1386,12 @@
       <c r="G28" s="8">
         <v>290</v>
       </c>
-    </row>
-    <row r="29" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="1" cm="1">
+        <f t="array" ref="I28">MAX(IF($E$6:$E$1000=E28, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>24</v>
       </c>
@@ -1176,8 +1407,12 @@
       <c r="G29" s="8">
         <v>520</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="1" cm="1">
+        <f t="array" ref="I29">MAX(IF($E$6:$E$1000=E29, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>25</v>
       </c>
@@ -1193,8 +1428,12 @@
       <c r="G30" s="8">
         <v>630</v>
       </c>
-    </row>
-    <row r="31" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" cm="1">
+        <f t="array" ref="I30">MAX(IF($E$6:$E$1000=E30, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>26</v>
       </c>
@@ -1210,8 +1449,12 @@
       <c r="G31" s="8">
         <v>410</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="1" cm="1">
+        <f t="array" ref="I31">MAX(IF($E$6:$E$1000=E31, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>27</v>
       </c>
@@ -1227,8 +1470,12 @@
       <c r="G32" s="8">
         <v>560</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="1" cm="1">
+        <f t="array" ref="I32">MAX(IF($E$6:$E$1000=E32, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>28</v>
       </c>
@@ -1244,8 +1491,12 @@
       <c r="G33" s="8">
         <v>490</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="1" cm="1">
+        <f t="array" ref="I33">MAX(IF($E$6:$E$1000=E33, $G$6:$G$1000))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6">
         <v>29</v>
       </c>
@@ -1261,8 +1512,12 @@
       <c r="G34" s="8">
         <v>580</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="1" cm="1">
+        <f t="array" ref="I34">MAX(IF($E$6:$E$1000=E34, $G$6:$G$1000))</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="6">
         <v>30</v>
       </c>
@@ -1277,6 +1532,58 @@
       </c>
       <c r="G35" s="8">
         <v>670</v>
+      </c>
+      <c r="I35" s="1" cm="1">
+        <f t="array" ref="I35">MAX(IF($E$6:$E$1000=E35, $G$6:$G$1000))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" cm="1">
+        <f t="array" ref="I36">MAX(IF($E$6:$E$1000=E36, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" cm="1">
+        <f t="array" ref="I37">MAX(IF($E$6:$E$1000=E37, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" cm="1">
+        <f t="array" ref="I38">MAX(IF($E$6:$E$1000=E38, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" cm="1">
+        <f t="array" ref="I39">MAX(IF($E$6:$E$1000=E39, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" cm="1">
+        <f t="array" ref="I40">MAX(IF($E$6:$E$1000=E40, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" cm="1">
+        <f t="array" ref="I41">MAX(IF($E$6:$E$1000=E41, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" cm="1">
+        <f t="array" ref="I42">MAX(IF($E$6:$E$1000=E42, $G$6:$G$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" cm="1">
+        <f t="array" ref="I43">MAX(IF($E$6:$E$1000=E43, $G$6:$G$1000))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
